--- a/public/files/format_import.xlsx
+++ b/public/files/format_import.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\payroll\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0637E8B0-2DD8-4E36-A81D-AE1B0A53B682}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5327506B-AA2C-4A1C-A6A2-408587E9D7D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Bandung</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Contoh</t>
+  </si>
+  <si>
+    <t>dsfg</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -633,8 +636,8 @@
       </c>
     </row>
     <row r="2" spans="1:27" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>123456</v>
+      <c r="A2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>40</v>
